--- a/XLSX/TowerTable.xlsx
+++ b/XLSX/TowerTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBBEB03-080B-4505-A35A-38223501F30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4F8CAA-6AAC-463A-A113-E0AF5C7EBFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="3855" windowWidth="21600" windowHeight="11355" xr2:uid="{31983E5E-2A12-441D-8DED-979CCDC737CD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31983E5E-2A12-441D-8DED-979CCDC737CD}"/>
   </bookViews>
   <sheets>
     <sheet name="!Tower" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,11 +53,19 @@
     <t>FString</t>
   </si>
   <si>
-    <t>일반 타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스플래시 타워</t>
+    <t>언리얼 타워1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언리얼 타워2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언리얼 타워3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언리얼 타워4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AE05E0-179B-4EB2-8625-1ED734F8F331}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -523,6 +531,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XLSX/TowerTable.xlsx
+++ b/XLSX/TowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4F8CAA-6AAC-463A-A113-E0AF5C7EBFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CFA738-9E37-4EB8-93BF-6C9685A49D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31983E5E-2A12-441D-8DED-979CCDC737CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31983E5E-2A12-441D-8DED-979CCDC737CD}"/>
   </bookViews>
   <sheets>
     <sheet name="!Tower" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,9 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FString</t>
-  </si>
-  <si>
     <t>언리얼 타워1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,6 +63,34 @@
   </si>
   <si>
     <t>언리얼 타워4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Development/T_Monument_DA.T_Monument_DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Texture/Icon/T_icon_68.T_icon_68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Texture/Icon/T_icon_66.T_icon_66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Texture/Icon/T_icon_67.T_icon_67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset&lt;UTexture2D&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -151,6 +176,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,65 +520,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AE05E0-179B-4EB2-8625-1ED734F8F331}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="71" style="3" customWidth="1"/>
-    <col min="3" max="4" width="71" customWidth="1"/>
+    <col min="3" max="3" width="85.625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/TowerTable.xlsx
+++ b/XLSX/TowerTable.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50427633-ACB7-44FC-BA32-B56BBFDA1CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED2217E-5DA6-4FE8-8447-FE178053572C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
-    <sheet name="!Tower" sheetId="1" r:id="rId1"/>
-    <sheet name="NormalDesc" sheetId="2" r:id="rId2"/>
+    <sheet name="!NormalTower" sheetId="1" r:id="rId1"/>
+    <sheet name="NormalTowerDesc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2648,7 +2648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/XLSX/TowerTable.xlsx
+++ b/XLSX/TowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED2217E-5DA6-4FE8-8447-FE178053572C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6730A7EC-9292-48BA-9293-057CBAE8C3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!NormalTower" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="52">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,10 @@
   </si>
   <si>
     <t>;공격 타입</t>
+  </si>
+  <si>
+    <t>float32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -632,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -735,10 +739,10 @@
         <v>16</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>16</v>
@@ -750,7 +754,7 @@
         <v>16</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>19</v>
@@ -776,7 +780,7 @@
         <v>21</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>999999</v>
@@ -785,7 +789,7 @@
         <v>999999</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -826,7 +830,7 @@
         <v>21</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>999999</v>
@@ -835,7 +839,7 @@
         <v>999999</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="K4">
         <v>7</v>
@@ -876,7 +880,7 @@
         <v>21</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>999999</v>
@@ -885,7 +889,7 @@
         <v>999999</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="K5">
         <v>7</v>
@@ -927,7 +931,7 @@
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G12" si="0">ROUND(G5*1.1,0)</f>
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>999999</v>
@@ -936,7 +940,7 @@
         <v>999999</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -978,7 +982,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>999999</v>
@@ -987,7 +991,7 @@
         <v>999999</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>0.85</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -1029,7 +1033,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>999999</v>
@@ -1038,7 +1042,7 @@
         <v>999999</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>0.85</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -1080,7 +1084,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>999999</v>
@@ -1089,7 +1093,7 @@
         <v>999999</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>0.85</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -1131,7 +1135,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>999999</v>
@@ -1140,7 +1144,7 @@
         <v>999999</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>0.85</v>
       </c>
       <c r="K10">
         <v>7</v>
@@ -1182,7 +1186,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>999999</v>
@@ -1191,7 +1195,7 @@
         <v>999999</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>7</v>
@@ -1233,7 +1237,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="H12">
         <v>999999</v>
@@ -1242,7 +1246,7 @@
         <v>999999</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>7</v>
@@ -2648,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/XLSX/TowerTable.xlsx
+++ b/XLSX/TowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6730A7EC-9292-48BA-9293-057CBAE8C3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41935806-B94F-4631-85ED-F19F684785AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
@@ -126,30 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Game/Asset/UI/Sprite/Icon/S_icon_01.S_icon_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Asset/UI/Sprite/Icon/S_icon_02.S_icon_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Asset/UI/Sprite/Icon/S_icon_03.S_icon_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Asset/UI/Sprite/Icon/S_icon_04.S_icon_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Asset/UI/Sprite/Icon/S_icon_05.S_icon_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Asset/UI/Sprite/Icon/S_icon_06.S_icon_06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>투사체 타워</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,6 +208,24 @@
   <si>
     <t>float32</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Sprite/Icon/T_icon_01.T_icon_01</t>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Sprite/Icon/T_icon_02.T_icon_02</t>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Sprite/Icon/T_icon_03.T_icon_03</t>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Sprite/Icon/T_icon_04.T_icon_04</t>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Sprite/Icon/T_icon_05.T_icon_05</t>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Sprite/Icon/T_icon_06.T_icon_06</t>
   </si>
 </sst>
 </file>
@@ -637,7 +631,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -739,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>16</v>
@@ -754,7 +748,7 @@
         <v>16</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>19</v>
@@ -807,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -857,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -907,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -958,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1009,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1060,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1111,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1162,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1213,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1264,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1283,10 +1277,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G13">
         <v>40</v>
@@ -1316,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1335,10 +1329,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G14">
         <f t="shared" ref="G14" si="3">ROUND(G13*1.1,0)</f>
@@ -1369,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1388,10 +1382,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15" si="4">ROUND(G14*1.1,0)</f>
@@ -1422,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1441,10 +1435,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G16">
         <f t="shared" ref="G16" si="5">ROUND(G15*1.1,0)</f>
@@ -1475,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1494,10 +1488,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G17">
         <f>ROUND(G16*1.1,0)</f>
@@ -1528,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1547,10 +1541,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18" si="6">ROUND(G17*1.1,0)</f>
@@ -1581,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1600,10 +1594,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="7">ROUND(G18*1.1,0)</f>
@@ -1634,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -1653,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G20">
         <f t="shared" ref="G20" si="8">ROUND(G19*1.1,0)</f>
@@ -1687,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -1706,10 +1700,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21" si="9">ROUND(G20*1.1,0)</f>
@@ -1740,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -1759,10 +1753,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G22">
         <f t="shared" ref="G22" si="10">ROUND(G21*1.1,0)</f>
@@ -1793,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -1812,10 +1806,10 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G23">
         <v>30</v>
@@ -1845,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -1864,10 +1858,10 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G24">
         <f t="shared" ref="G24" si="11">ROUND(G23*1.1,0)</f>
@@ -1898,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -1917,10 +1911,10 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G25">
         <f t="shared" ref="G25" si="12">ROUND(G24*1.1,0)</f>
@@ -1951,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -1970,10 +1964,10 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26" si="13">ROUND(G25*1.1,0)</f>
@@ -2004,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2023,10 +2017,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="14">ROUND(G26*1.1,0)</f>
@@ -2057,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2076,10 +2070,10 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G28">
         <f t="shared" ref="G28" si="15">ROUND(G27*1.1,0)</f>
@@ -2110,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2129,10 +2123,10 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G29">
         <f t="shared" ref="G29" si="16">ROUND(G28*1.1,0)</f>
@@ -2163,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2182,10 +2176,10 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G30">
         <f t="shared" ref="G30" si="17">ROUND(G29*1.1,0)</f>
@@ -2216,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2235,10 +2229,10 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G31">
         <f t="shared" ref="G31" si="18">ROUND(G30*1.1,0)</f>
@@ -2269,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2288,10 +2282,10 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G32">
         <f t="shared" ref="G32:G38" si="19">ROUND(G31*1.1,0)</f>
@@ -2322,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2341,10 +2335,10 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2374,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -2393,10 +2387,10 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G34">
         <f t="shared" si="19"/>
@@ -2427,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -2446,10 +2440,10 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G35">
         <f t="shared" si="19"/>
@@ -2480,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2499,10 +2493,10 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G36">
         <f t="shared" si="19"/>
@@ -2533,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2552,10 +2546,10 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G37">
         <f t="shared" si="19"/>
@@ -2586,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -2605,10 +2599,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G38">
         <f t="shared" si="19"/>
@@ -2639,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2663,10 +2657,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2674,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2682,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2690,7 +2684,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2698,7 +2692,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2706,7 +2700,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2714,7 +2708,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2722,7 +2716,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2730,7 +2724,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2738,7 +2732,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2746,7 +2740,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2754,7 +2748,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2762,15 +2756,15 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2778,7 +2772,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/TowerTable.xlsx
+++ b/XLSX/TowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41935806-B94F-4631-85ED-F19F684785AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806CFDB8-3107-46DD-AFE5-95E8F0AB6CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
@@ -210,22 +210,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Game/Asset/UI/Sprite/Icon/T_icon_01.T_icon_01</t>
-  </si>
-  <si>
-    <t>/Game/Asset/UI/Sprite/Icon/T_icon_02.T_icon_02</t>
-  </si>
-  <si>
-    <t>/Game/Asset/UI/Sprite/Icon/T_icon_03.T_icon_03</t>
-  </si>
-  <si>
-    <t>/Game/Asset/UI/Sprite/Icon/T_icon_04.T_icon_04</t>
-  </si>
-  <si>
-    <t>/Game/Asset/UI/Sprite/Icon/T_icon_05.T_icon_05</t>
-  </si>
-  <si>
-    <t>/Game/Asset/UI/Sprite/Icon/T_icon_06.T_icon_06</t>
+    <t>/Game/Asset/UI/Texture/Icon/T_icon_01.T_icon_01</t>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Texture/Icon/T_icon_02.T_icon_02</t>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Texture/Icon/T_icon_03.T_icon_03</t>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Texture/Icon/T_icon_04.T_icon_04</t>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Texture/Icon/T_icon_05.T_icon_05</t>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Texture/Icon/T_icon_06.T_icon_06</t>
   </si>
 </sst>
 </file>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/XLSX/TowerTable.xlsx
+++ b/XLSX/TowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806CFDB8-3107-46DD-AFE5-95E8F0AB6CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AC0280-7F15-42C7-9CD2-5B3CA6A5182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="55">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,18 @@
   </si>
   <si>
     <t>/Game/Asset/UI/Texture/Icon/T_icon_06.T_icon_06</t>
+  </si>
+  <si>
+    <t>UnitPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Blueprint/Unit/Dragon/TestDragonTower/Unit_TestDragonTower.Unit_TestDragonTower_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class&lt;AUnitStageTower&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -628,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -651,10 +663,11 @@
     <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="86.875" customWidth="1"/>
+    <col min="17" max="17" width="46.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,10 +714,13 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -751,10 +767,13 @@
         <v>45</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -801,10 +820,13 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>101</v>
       </c>
@@ -851,10 +873,13 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>102</v>
       </c>
@@ -901,10 +926,13 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>103</v>
       </c>
@@ -952,10 +980,13 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>104</v>
       </c>
@@ -1003,10 +1034,13 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>105</v>
       </c>
@@ -1054,10 +1088,13 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>106</v>
       </c>
@@ -1105,10 +1142,13 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>107</v>
       </c>
@@ -1156,10 +1196,13 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>108</v>
       </c>
@@ -1207,10 +1250,13 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>109</v>
       </c>
@@ -1258,10 +1304,13 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>200</v>
       </c>
@@ -1310,10 +1359,13 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>201</v>
       </c>
@@ -1363,10 +1415,13 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>202</v>
       </c>
@@ -1416,10 +1471,13 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>203</v>
       </c>
@@ -1469,10 +1527,13 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>204</v>
       </c>
@@ -1522,10 +1583,13 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>205</v>
       </c>
@@ -1575,10 +1639,13 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>206</v>
       </c>
@@ -1628,10 +1695,13 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>207</v>
       </c>
@@ -1681,10 +1751,13 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>208</v>
       </c>
@@ -1734,10 +1807,13 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>209</v>
       </c>
@@ -1787,10 +1863,13 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>300</v>
       </c>
@@ -1839,10 +1918,13 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>301</v>
       </c>
@@ -1892,10 +1974,13 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>302</v>
       </c>
@@ -1945,10 +2030,13 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>303</v>
       </c>
@@ -1998,10 +2086,13 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>304</v>
       </c>
@@ -2051,10 +2142,13 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>305</v>
       </c>
@@ -2104,10 +2198,13 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>306</v>
       </c>
@@ -2157,10 +2254,13 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>307</v>
       </c>
@@ -2210,10 +2310,13 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>308</v>
       </c>
@@ -2263,10 +2366,13 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>309</v>
       </c>
@@ -2316,10 +2422,13 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>400</v>
       </c>
@@ -2368,10 +2477,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>401</v>
       </c>
@@ -2421,10 +2533,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>402</v>
       </c>
@@ -2474,10 +2589,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>403</v>
       </c>
@@ -2527,10 +2645,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>404</v>
       </c>
@@ -2580,10 +2701,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>405</v>
       </c>
@@ -2633,6 +2757,9 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" t="s">
         <v>51</v>
       </c>
     </row>

--- a/XLSX/TowerTable.xlsx
+++ b/XLSX/TowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AC0280-7F15-42C7-9CD2-5B3CA6A5182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1F6269-98B8-42D6-96E8-5797860FE5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="7080" yWindow="4230" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!NormalTower" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="56">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Defend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,6 +233,14 @@
   </si>
   <si>
     <t>class&lt;AUnitStageTower&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defend는 방어하다, 동사격 의미임으로 Defence로 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -690,87 +694,87 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -787,10 +791,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -820,10 +824,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -840,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -873,10 +877,10 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -893,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
       </c>
       <c r="G5">
         <v>7</v>
@@ -926,10 +930,10 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -946,10 +950,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G12" si="0">ROUND(G5*1.1,0)</f>
@@ -980,10 +984,10 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1000,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -1034,10 +1038,10 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1054,10 +1058,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -1088,10 +1092,10 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1108,10 +1112,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -1142,10 +1146,10 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1162,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
         <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -1196,10 +1200,10 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1216,10 +1220,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
         <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -1250,10 +1254,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1270,10 +1274,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
         <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -1304,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1326,10 +1330,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
         <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
       </c>
       <c r="G13">
         <v>40</v>
@@ -1359,10 +1363,10 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1381,10 +1385,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
         <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
       </c>
       <c r="G14">
         <f t="shared" ref="G14" si="3">ROUND(G13*1.1,0)</f>
@@ -1415,10 +1419,10 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1437,10 +1441,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
         <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15" si="4">ROUND(G14*1.1,0)</f>
@@ -1471,10 +1475,10 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1493,10 +1497,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
         <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
       </c>
       <c r="G16">
         <f t="shared" ref="G16" si="5">ROUND(G15*1.1,0)</f>
@@ -1527,10 +1531,10 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1549,10 +1553,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
         <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
       </c>
       <c r="G17">
         <f>ROUND(G16*1.1,0)</f>
@@ -1583,10 +1587,10 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,10 +1609,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
         <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18" si="6">ROUND(G17*1.1,0)</f>
@@ -1639,10 +1643,10 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,10 +1665,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
         <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="7">ROUND(G18*1.1,0)</f>
@@ -1695,10 +1699,10 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1717,10 +1721,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
         <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>23</v>
       </c>
       <c r="G20">
         <f t="shared" ref="G20" si="8">ROUND(G19*1.1,0)</f>
@@ -1751,10 +1755,10 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,10 +1777,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
         <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>23</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21" si="9">ROUND(G20*1.1,0)</f>
@@ -1807,10 +1811,10 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,10 +1833,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
         <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>23</v>
       </c>
       <c r="G22">
         <f t="shared" ref="G22" si="10">ROUND(G21*1.1,0)</f>
@@ -1863,10 +1867,10 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1885,10 +1889,10 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
         <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
       </c>
       <c r="G23">
         <v>30</v>
@@ -1918,10 +1922,10 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,10 +1944,10 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
         <v>24</v>
-      </c>
-      <c r="F24" t="s">
-        <v>25</v>
       </c>
       <c r="G24">
         <f t="shared" ref="G24" si="11">ROUND(G23*1.1,0)</f>
@@ -1974,10 +1978,10 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
         <v>24</v>
-      </c>
-      <c r="F25" t="s">
-        <v>25</v>
       </c>
       <c r="G25">
         <f t="shared" ref="G25" si="12">ROUND(G24*1.1,0)</f>
@@ -2030,10 +2034,10 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,10 +2056,10 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
         <v>24</v>
-      </c>
-      <c r="F26" t="s">
-        <v>25</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26" si="13">ROUND(G25*1.1,0)</f>
@@ -2086,10 +2090,10 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,10 +2112,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
         <v>24</v>
-      </c>
-      <c r="F27" t="s">
-        <v>25</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="14">ROUND(G26*1.1,0)</f>
@@ -2142,10 +2146,10 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,10 +2168,10 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
         <v>24</v>
-      </c>
-      <c r="F28" t="s">
-        <v>25</v>
       </c>
       <c r="G28">
         <f t="shared" ref="G28" si="15">ROUND(G27*1.1,0)</f>
@@ -2198,10 +2202,10 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,10 +2224,10 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
         <v>24</v>
-      </c>
-      <c r="F29" t="s">
-        <v>25</v>
       </c>
       <c r="G29">
         <f t="shared" ref="G29" si="16">ROUND(G28*1.1,0)</f>
@@ -2254,10 +2258,10 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,10 +2280,10 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
         <v>24</v>
-      </c>
-      <c r="F30" t="s">
-        <v>25</v>
       </c>
       <c r="G30">
         <f t="shared" ref="G30" si="17">ROUND(G29*1.1,0)</f>
@@ -2310,10 +2314,10 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,10 +2336,10 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
         <v>24</v>
-      </c>
-      <c r="F31" t="s">
-        <v>25</v>
       </c>
       <c r="G31">
         <f t="shared" ref="G31" si="18">ROUND(G30*1.1,0)</f>
@@ -2366,10 +2370,10 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,10 +2392,10 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
         <v>24</v>
-      </c>
-      <c r="F32" t="s">
-        <v>25</v>
       </c>
       <c r="G32">
         <f t="shared" ref="G32:G38" si="19">ROUND(G31*1.1,0)</f>
@@ -2422,10 +2426,10 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,10 +2448,10 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
         <v>26</v>
-      </c>
-      <c r="F33" t="s">
-        <v>27</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2477,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
         <v>26</v>
-      </c>
-      <c r="F34" t="s">
-        <v>27</v>
       </c>
       <c r="G34">
         <f t="shared" si="19"/>
@@ -2533,10 +2537,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,10 +2559,10 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
         <v>26</v>
-      </c>
-      <c r="F35" t="s">
-        <v>27</v>
       </c>
       <c r="G35">
         <f t="shared" si="19"/>
@@ -2589,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,10 +2615,10 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
         <v>26</v>
-      </c>
-      <c r="F36" t="s">
-        <v>27</v>
       </c>
       <c r="G36">
         <f t="shared" si="19"/>
@@ -2645,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,10 +2671,10 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
         <v>26</v>
-      </c>
-      <c r="F37" t="s">
-        <v>27</v>
       </c>
       <c r="G37">
         <f t="shared" si="19"/>
@@ -2701,10 +2705,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,10 +2727,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
         <v>26</v>
-      </c>
-      <c r="F38" t="s">
-        <v>27</v>
       </c>
       <c r="G38">
         <f t="shared" si="19"/>
@@ -2757,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2771,135 +2775,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/TowerTable.xlsx
+++ b/XLSX/TowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1F6269-98B8-42D6-96E8-5797860FE5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260DA1BA-C497-48A5-94C6-E50B9F669463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="4230" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!NormalTower" sheetId="1" r:id="rId1"/>
@@ -232,15 +232,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>class&lt;AUnitStageTower&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Defence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Defend는 방어하다, 동사격 의미임으로 Defence로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class&lt;AStageTowerUnit&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -694,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -771,7 +771,7 @@
         <v>44</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>18</v>
@@ -2777,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2837,13 +2837,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">

--- a/XLSX/TowerTable.xlsx
+++ b/XLSX/TowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260DA1BA-C497-48A5-94C6-E50B9F669463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A07B68A-B21A-42D6-85C8-B0A6B1764447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="33180" yWindow="4755" windowWidth="21600" windowHeight="12645" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!NormalTower" sheetId="1" r:id="rId1"/>
@@ -95,25 +95,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IconPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum&lt;EAttackType&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asset&lt;UTexture2D&gt;</t>
-  </si>
-  <si>
     <t>일반 타워</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,10 +209,6 @@
     <t>/Game/Asset/UI/Texture/Icon/T_icon_06.T_icon_06</t>
   </si>
   <si>
-    <t>UnitPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/Game/Blueprint/Unit/Dragon/TestDragonTower/Unit_TestDragonTower.Unit_TestDragonTower_C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,7 +221,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>class&lt;AStageTowerUnit&gt;</t>
+    <t>FText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum&lt;EAttackType&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class&lt;AStageTowerUnit&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset&lt;UTexture2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -694,7 +695,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -718,63 +719,63 @@
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -791,10 +792,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -824,10 +825,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -844,10 +845,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -877,10 +878,10 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -897,10 +898,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>7</v>
@@ -930,10 +931,10 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -950,10 +951,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G12" si="0">ROUND(G5*1.1,0)</f>
@@ -984,10 +985,10 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1004,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -1038,10 +1039,10 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1058,10 +1059,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -1092,10 +1093,10 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1112,10 +1113,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -1146,10 +1147,10 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1166,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -1200,10 +1201,10 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1220,10 +1221,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -1254,10 +1255,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1274,10 +1275,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -1308,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1330,10 +1331,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G13">
         <v>40</v>
@@ -1363,10 +1364,10 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1385,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <f t="shared" ref="G14" si="3">ROUND(G13*1.1,0)</f>
@@ -1419,10 +1420,10 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15" si="4">ROUND(G14*1.1,0)</f>
@@ -1475,10 +1476,10 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,10 +1498,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G16">
         <f t="shared" ref="G16" si="5">ROUND(G15*1.1,0)</f>
@@ -1531,10 +1532,10 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,10 +1554,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G17">
         <f>ROUND(G16*1.1,0)</f>
@@ -1587,10 +1588,10 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,10 +1610,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18" si="6">ROUND(G17*1.1,0)</f>
@@ -1643,10 +1644,10 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1666,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="7">ROUND(G18*1.1,0)</f>
@@ -1699,10 +1700,10 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,10 +1722,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G20">
         <f t="shared" ref="G20" si="8">ROUND(G19*1.1,0)</f>
@@ -1755,10 +1756,10 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,10 +1778,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21" si="9">ROUND(G20*1.1,0)</f>
@@ -1811,10 +1812,10 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G22">
         <f t="shared" ref="G22" si="10">ROUND(G21*1.1,0)</f>
@@ -1867,10 +1868,10 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1889,10 +1890,10 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>30</v>
@@ -1922,10 +1923,10 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,10 +1945,10 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G24">
         <f t="shared" ref="G24" si="11">ROUND(G23*1.1,0)</f>
@@ -1978,10 +1979,10 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,10 +2001,10 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G25">
         <f t="shared" ref="G25" si="12">ROUND(G24*1.1,0)</f>
@@ -2034,10 +2035,10 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,10 +2057,10 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26" si="13">ROUND(G25*1.1,0)</f>
@@ -2090,10 +2091,10 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,10 +2113,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="14">ROUND(G26*1.1,0)</f>
@@ -2146,10 +2147,10 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,10 +2169,10 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G28">
         <f t="shared" ref="G28" si="15">ROUND(G27*1.1,0)</f>
@@ -2202,10 +2203,10 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,10 +2225,10 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G29">
         <f t="shared" ref="G29" si="16">ROUND(G28*1.1,0)</f>
@@ -2258,10 +2259,10 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,10 +2281,10 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G30">
         <f t="shared" ref="G30" si="17">ROUND(G29*1.1,0)</f>
@@ -2314,10 +2315,10 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,10 +2337,10 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G31">
         <f t="shared" ref="G31" si="18">ROUND(G30*1.1,0)</f>
@@ -2370,10 +2371,10 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,10 +2393,10 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G32">
         <f t="shared" ref="G32:G38" si="19">ROUND(G31*1.1,0)</f>
@@ -2426,10 +2427,10 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,10 +2449,10 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2481,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,10 +2504,10 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G34">
         <f t="shared" si="19"/>
@@ -2537,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,10 +2560,10 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G35">
         <f t="shared" si="19"/>
@@ -2593,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,10 +2616,10 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G36">
         <f t="shared" si="19"/>
@@ -2649,10 +2650,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q36" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,10 +2672,10 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G37">
         <f t="shared" si="19"/>
@@ -2705,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,10 +2728,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G38">
         <f t="shared" si="19"/>
@@ -2761,10 +2762,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2789,10 +2790,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2800,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2808,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2816,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2824,7 +2825,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2832,18 +2833,18 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2851,7 +2852,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2859,7 +2860,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2867,7 +2868,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2875,7 +2876,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2883,7 +2884,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2891,15 +2892,15 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2907,7 +2908,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/TowerTable.xlsx
+++ b/XLSX/TowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A07B68A-B21A-42D6-85C8-B0A6B1764447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42E095D-685C-43D9-9E4A-06FA37F2FD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33180" yWindow="4755" windowWidth="21600" windowHeight="12645" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="28680" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!NormalTower" sheetId="1" r:id="rId1"/>
@@ -103,34 +103,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NomalAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>투사체 타워</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProjectileAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>범위 공격 타워</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RangeAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지원 생산 타워</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SupportAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INDEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,6 +226,22 @@
   </si>
   <si>
     <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerNomalAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerProjectileAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerRangeAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerSupportAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -695,7 +695,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -719,10 +719,10 @@
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -739,10 +739,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>14</v>
@@ -754,10 +754,10 @@
         <v>14</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>14</v>
@@ -769,13 +769,13 @@
         <v>14</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -795,7 +795,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -825,10 +825,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -848,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -878,10 +878,10 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -901,7 +901,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G5">
         <v>7</v>
@@ -931,10 +931,10 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -954,7 +954,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G12" si="0">ROUND(G5*1.1,0)</f>
@@ -985,10 +985,10 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1008,7 +1008,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -1039,10 +1039,10 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1062,7 +1062,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -1093,10 +1093,10 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1116,7 +1116,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -1147,10 +1147,10 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1170,7 +1170,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -1201,10 +1201,10 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1224,7 +1224,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -1255,10 +1255,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1278,7 +1278,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -1309,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1331,10 +1331,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G13">
         <v>40</v>
@@ -1364,10 +1364,10 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1386,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G14">
         <f t="shared" ref="G14" si="3">ROUND(G13*1.1,0)</f>
@@ -1420,10 +1420,10 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1442,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15" si="4">ROUND(G14*1.1,0)</f>
@@ -1476,10 +1476,10 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,10 +1498,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <f t="shared" ref="G16" si="5">ROUND(G15*1.1,0)</f>
@@ -1532,10 +1532,10 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,10 +1554,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G17">
         <f>ROUND(G16*1.1,0)</f>
@@ -1588,10 +1588,10 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,10 +1610,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18" si="6">ROUND(G17*1.1,0)</f>
@@ -1644,10 +1644,10 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1666,10 +1666,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="7">ROUND(G18*1.1,0)</f>
@@ -1700,10 +1700,10 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,10 +1722,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G20">
         <f t="shared" ref="G20" si="8">ROUND(G19*1.1,0)</f>
@@ -1756,10 +1756,10 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,10 +1778,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21" si="9">ROUND(G20*1.1,0)</f>
@@ -1812,10 +1812,10 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <f t="shared" ref="G22" si="10">ROUND(G21*1.1,0)</f>
@@ -1868,10 +1868,10 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1890,10 +1890,10 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G23">
         <v>30</v>
@@ -1923,10 +1923,10 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,10 +1945,10 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G24">
         <f t="shared" ref="G24" si="11">ROUND(G23*1.1,0)</f>
@@ -1979,10 +1979,10 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,10 +2001,10 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G25">
         <f t="shared" ref="G25" si="12">ROUND(G24*1.1,0)</f>
@@ -2035,10 +2035,10 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2057,10 +2057,10 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26" si="13">ROUND(G25*1.1,0)</f>
@@ -2091,10 +2091,10 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,10 +2113,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="14">ROUND(G26*1.1,0)</f>
@@ -2147,10 +2147,10 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,10 +2169,10 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G28">
         <f t="shared" ref="G28" si="15">ROUND(G27*1.1,0)</f>
@@ -2203,10 +2203,10 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,10 +2225,10 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G29">
         <f t="shared" ref="G29" si="16">ROUND(G28*1.1,0)</f>
@@ -2259,10 +2259,10 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,10 +2281,10 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G30">
         <f t="shared" ref="G30" si="17">ROUND(G29*1.1,0)</f>
@@ -2315,10 +2315,10 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,10 +2337,10 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G31">
         <f t="shared" ref="G31" si="18">ROUND(G30*1.1,0)</f>
@@ -2371,10 +2371,10 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,10 +2393,10 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G32">
         <f t="shared" ref="G32:G38" si="19">ROUND(G31*1.1,0)</f>
@@ -2427,10 +2427,10 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,10 +2449,10 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,10 +2504,10 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G34">
         <f t="shared" si="19"/>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,10 +2560,10 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G35">
         <f t="shared" si="19"/>
@@ -2594,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,10 +2616,10 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G36">
         <f t="shared" si="19"/>
@@ -2650,10 +2650,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,10 +2672,10 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G37">
         <f t="shared" si="19"/>
@@ -2706,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q37" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,10 +2728,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G38">
         <f t="shared" si="19"/>
@@ -2762,10 +2762,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2790,10 +2790,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2801,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2809,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2817,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2825,7 +2825,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2833,18 +2833,18 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2852,7 +2852,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2860,7 +2860,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2868,7 +2868,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2876,7 +2876,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2884,7 +2884,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2892,15 +2892,15 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2908,7 +2908,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/TowerTable.xlsx
+++ b/XLSX/TowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42E095D-685C-43D9-9E4A-06FA37F2FD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374082E2-B95E-492C-97F1-53E37B870ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!NormalTower" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="60">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,21 @@
   </si>
   <si>
     <t>TowerSupportAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset&lt;UBehaviorTree&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Blueprint/Stage/AI/BT_Tower.BT_Tower</t>
+  </si>
+  <si>
+    <t>/Game/Blueprint/Stage/AI/BT_Tower.BT_Tower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33:F38"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -670,9 +685,10 @@
     <col min="15" max="15" width="11.75" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="86.875" customWidth="1"/>
     <col min="17" max="17" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="80.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,8 +740,11 @@
       <c r="Q1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -777,8 +796,11 @@
       <c r="Q2" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -830,8 +852,11 @@
       <c r="Q3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>101</v>
       </c>
@@ -883,8 +908,11 @@
       <c r="Q4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>102</v>
       </c>
@@ -936,8 +964,11 @@
       <c r="Q5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>103</v>
       </c>
@@ -990,8 +1021,11 @@
       <c r="Q6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>104</v>
       </c>
@@ -1044,8 +1078,11 @@
       <c r="Q7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>105</v>
       </c>
@@ -1098,8 +1135,11 @@
       <c r="Q8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>106</v>
       </c>
@@ -1152,8 +1192,11 @@
       <c r="Q9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>107</v>
       </c>
@@ -1206,8 +1249,11 @@
       <c r="Q10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>108</v>
       </c>
@@ -1260,8 +1306,11 @@
       <c r="Q11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>109</v>
       </c>
@@ -1314,8 +1363,11 @@
       <c r="Q12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>200</v>
       </c>
@@ -1369,8 +1421,11 @@
       <c r="Q13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>201</v>
       </c>
@@ -1425,8 +1480,11 @@
       <c r="Q14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>202</v>
       </c>
@@ -1481,8 +1539,11 @@
       <c r="Q15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>203</v>
       </c>
@@ -1537,8 +1598,11 @@
       <c r="Q16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>204</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="Q17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>205</v>
       </c>
@@ -1649,8 +1716,11 @@
       <c r="Q18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>206</v>
       </c>
@@ -1705,8 +1775,11 @@
       <c r="Q19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>207</v>
       </c>
@@ -1761,8 +1834,11 @@
       <c r="Q20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>208</v>
       </c>
@@ -1817,8 +1893,11 @@
       <c r="Q21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>209</v>
       </c>
@@ -1873,8 +1952,11 @@
       <c r="Q22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>300</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="Q23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>301</v>
       </c>
@@ -1984,8 +2069,11 @@
       <c r="Q24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>302</v>
       </c>
@@ -2040,8 +2128,11 @@
       <c r="Q25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>303</v>
       </c>
@@ -2096,8 +2187,11 @@
       <c r="Q26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>304</v>
       </c>
@@ -2152,8 +2246,11 @@
       <c r="Q27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>305</v>
       </c>
@@ -2208,8 +2305,11 @@
       <c r="Q28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>306</v>
       </c>
@@ -2264,8 +2364,11 @@
       <c r="Q29" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>307</v>
       </c>
@@ -2320,8 +2423,11 @@
       <c r="Q30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>308</v>
       </c>
@@ -2376,8 +2482,11 @@
       <c r="Q31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>309</v>
       </c>
@@ -2432,8 +2541,11 @@
       <c r="Q32" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>400</v>
       </c>
@@ -2487,8 +2599,11 @@
       <c r="Q33" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>401</v>
       </c>
@@ -2543,8 +2658,11 @@
       <c r="Q34" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>402</v>
       </c>
@@ -2599,8 +2717,11 @@
       <c r="Q35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>403</v>
       </c>
@@ -2655,8 +2776,11 @@
       <c r="Q36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>404</v>
       </c>
@@ -2711,8 +2835,11 @@
       <c r="Q37" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>405</v>
       </c>
@@ -2766,6 +2893,9 @@
       </c>
       <c r="Q38" t="s">
         <v>42</v>
+      </c>
+      <c r="R38" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/TowerTable.xlsx
+++ b/XLSX/TowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374082E2-B95E-492C-97F1-53E37B870ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AE1F17-A19E-42E9-949E-9EE7E36F4A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!NormalTower" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="61">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,10 @@
   </si>
   <si>
     <t>/Game/Blueprint/Stage/AI/BT_Tower.BT_Tower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -711,7 +715,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
